--- a/adm_template.xlsx
+++ b/adm_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://molgroup-my.sharepoint.com/personal/a47g079_molgroup_com/Documents/ドキュメント/★：あさか丸/attendance_management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="8_{2B100229-1E50-4F8D-A163-8823FF094F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D3B8163-FB24-4363-82F3-EA07FC245993}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{7938B024-A497-4705-ADD5-1AD80351F4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3E59B80-6182-438B-9F9C-8401B31F941C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,25 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$S$24</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>予定時間</t>
     <rPh sb="0" eb="2">
@@ -245,19 +258,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　年　 月 　日</t>
-    <rPh sb="1" eb="2">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヒ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -320,32 +320,103 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>0000～0500</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>0600～1000</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>1500～1900</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>1900～2200</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>2200～2400</t>
-    <phoneticPr fontId="11"/>
+    <t>日勤午前</t>
+    <rPh sb="0" eb="2">
+      <t>ニッキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゴゼン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日勤午後</t>
+    <rPh sb="0" eb="2">
+      <t>ニッキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゴゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>深夜時間外</t>
+    <rPh sb="0" eb="2">
+      <t>シンヤ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ジカンガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>普通時間外</t>
+    <rPh sb="0" eb="2">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ジカンガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>合計時間</t>
+    <rPh sb="0" eb="4">
+      <t>ゴウケイジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>使用時間計</t>
+    <rPh sb="0" eb="4">
+      <t>シヨウジカン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>深夜時間外
+22～24:00</t>
     <rPh sb="0" eb="2">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
+      <t>シンヤ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ジカンガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>当直時間外
+19～22:00</t>
+    <rPh sb="0" eb="2">
+      <t>トウチョク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ジカンガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>深夜時間外
+00～05:00</t>
+    <rPh sb="0" eb="2">
+      <t>シンヤ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ジカンガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>明け時間外
+05:00～</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ジカンガイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -358,7 +429,7 @@
     <numFmt numFmtId="176" formatCode="&quot;(&quot;\ General\ &quot;)&quot;"/>
     <numFmt numFmtId="177" formatCode="hh:mm"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -398,13 +469,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <u/>
-      <sz val="23"/>
-      <name val="ＭＳ 明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
@@ -421,19 +485,6 @@
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="ＭＳ 明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -455,8 +506,83 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="游明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="游明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="游明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="游明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="游明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="23"/>
+      <name val="游明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,8 +595,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -815,42 +959,55 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top style="dashed">
-        <color auto="1"/>
-      </top>
-      <bottom style="dashed">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="hair">
         <color indexed="64"/>
       </top>
       <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -862,7 +1019,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -885,86 +1042,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -972,12 +1060,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -990,191 +1072,341 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed" textRotation="255" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed" textRotation="255" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="distributed" textRotation="255" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="distributed" textRotation="255" justifyLastLine="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="16" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1195,9 +1427,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1235,9 +1467,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1270,9 +1502,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1305,9 +1554,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1484,10 +1750,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1504,11 +1770,12 @@
     <col min="16" max="16" width="8.33203125" style="1" customWidth="1"/>
     <col min="17" max="19" width="11.77734375" style="1" customWidth="1"/>
     <col min="20" max="20" width="9.109375" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="1"/>
+    <col min="21" max="21" width="11.33203125" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="25.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:20" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="25.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:22" ht="37.200000000000003" x14ac:dyDescent="0.2">
       <c r="A2" s="92" t="s">
         <v>8</v>
       </c>
@@ -1531,489 +1798,557 @@
       <c r="R2" s="92"/>
       <c r="S2" s="92"/>
     </row>
-    <row r="4" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="103"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="63">
+        <v>85</v>
+      </c>
+      <c r="L4" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="101"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="24"/>
-      <c r="J4" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="19">
-        <v>85</v>
-      </c>
-      <c r="L4" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="69"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="93" t="s">
+      <c r="M4" s="120"/>
+      <c r="N4" s="121"/>
+      <c r="O4" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="94"/>
+      <c r="P4" s="96"/>
       <c r="Q4" s="89"/>
       <c r="R4" s="90"/>
       <c r="S4" s="91"/>
     </row>
-    <row r="5" spans="1:20" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="95" t="s">
+    <row r="5" spans="1:22" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="57" t="s">
+      <c r="B5" s="98"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="87" t="s">
+      <c r="F5" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="81" t="s">
+      <c r="G5" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="71" t="s">
+      <c r="H5" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="73" t="s">
+      <c r="I5" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="79" t="s">
+      <c r="J5" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="75" t="s">
+      <c r="K5" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="85" t="s">
+      <c r="L5" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="83" t="s">
+      <c r="M5" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="27" t="s">
+      <c r="N5" s="128" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" s="69"/>
+    </row>
+    <row r="6" spans="1:22" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="100" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="101"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="94"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="129" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="106"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="P5" s="87" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="R5" s="28" t="s">
+      <c r="S6" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="T6" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="S5" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="98" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="88"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="O6" s="82"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="R6" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="S6" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="T6" s="61" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="67"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="42"/>
-    </row>
-    <row r="8" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="77"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="62"/>
-    </row>
-    <row r="9" spans="1:20" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="67"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="42"/>
-    </row>
-    <row r="10" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="77"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="62"/>
-    </row>
-    <row r="11" spans="1:20" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="67"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="42"/>
-    </row>
-    <row r="12" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="78"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
+      <c r="U6" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="V6" s="50"/>
+    </row>
+    <row r="7" spans="1:22" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="114"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="V7" s="51"/>
+    </row>
+    <row r="8" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="113"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="112"/>
+      <c r="P8" s="112"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="V8" s="51"/>
+    </row>
+    <row r="9" spans="1:22" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="114"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="V9" s="51"/>
+    </row>
+    <row r="10" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="113"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="112"/>
+      <c r="P10" s="112"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="V10" s="51"/>
+    </row>
+    <row r="11" spans="1:22" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="114"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="V11" s="51"/>
+    </row>
+    <row r="12" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="115"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
       <c r="N12" s="46"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="62"/>
-    </row>
-    <row r="13" spans="1:20" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="67"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="42"/>
-    </row>
-    <row r="14" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="77"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="62"/>
-    </row>
-    <row r="15" spans="1:20" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="67"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="42"/>
-    </row>
-    <row r="16" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="77"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="62"/>
-    </row>
-    <row r="17" spans="1:20" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="67"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="64"/>
-      <c r="P17" s="64"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="42"/>
-    </row>
-    <row r="18" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="77"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="62"/>
-    </row>
-    <row r="19" spans="1:20" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="67"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="64"/>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="42"/>
-    </row>
-    <row r="20" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="78"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
+      <c r="O12" s="116"/>
+      <c r="P12" s="116"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="V12" s="52"/>
+    </row>
+    <row r="13" spans="1:22" s="3" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="114"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="V13" s="53">
+        <f>SUM(V6:V12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="113"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="112"/>
+      <c r="P14" s="112"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="83"/>
+    </row>
+    <row r="15" spans="1:22" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="114"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="111"/>
+      <c r="P15" s="111"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="55"/>
+      <c r="U15" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="V15" s="54">
+        <f>SUM(V8,V9,V12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="113"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="112"/>
+      <c r="P16" s="112"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="55"/>
+      <c r="U16" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="V16" s="54">
+        <f>SUM(V10:V11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="114"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="111"/>
+      <c r="P17" s="111"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+    </row>
+    <row r="18" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="113"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="112"/>
+      <c r="P18" s="112"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="55"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+    </row>
+    <row r="19" spans="1:22" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="114"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="111"/>
+      <c r="P19" s="111"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="55"/>
+      <c r="U19" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="V19" s="35">
+        <f>SUM(M7:M20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="115"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
       <c r="N20" s="46"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="62"/>
-    </row>
-    <row r="21" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="48"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
+      <c r="O20" s="116"/>
+      <c r="P20" s="116"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="55"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+    </row>
+    <row r="21" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
-      <c r="S21" s="14"/>
-    </row>
-    <row r="22" spans="1:20" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="44"/>
-      <c r="B22" s="55" t="s">
+      <c r="S21" s="10"/>
+    </row>
+    <row r="22" spans="1:22" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="18"/>
+      <c r="B22" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="103"/>
-      <c r="D22" s="103"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
       <c r="N22" s="7"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="44"/>
-      <c r="B23" s="55" t="s">
+      <c r="P22" s="20"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="2"/>
+    </row>
+    <row r="23" spans="1:22" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="18"/>
+      <c r="B23" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
       <c r="N23" s="7"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="62"/>
-    </row>
-    <row r="24" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="45"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="32"/>
+    </row>
+    <row r="24" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="19"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -2031,42 +2366,62 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
-      <c r="S24" s="10"/>
-    </row>
-    <row r="25" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M26" s="63"/>
-      <c r="R26" s="59" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="R27" s="58" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="R28" s="58" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="R29" s="60" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="R30" s="59" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="S24" s="9"/>
+    </row>
+    <row r="25" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M26" s="33"/>
+      <c r="S26" s="28"/>
+    </row>
+    <row r="27" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S27" s="28"/>
+    </row>
+    <row r="28" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S28" s="30"/>
+    </row>
+    <row r="29" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S29" s="29"/>
+    </row>
+    <row r="30" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S30" s="29"/>
+    </row>
+    <row r="31" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S31" s="31"/>
+    </row>
+    <row r="32" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="P17:P18"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="Q4:S4"/>
@@ -2083,37 +2438,6 @@
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="P17:P18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
